--- a/Python/Data_save/data/temp.xlsx
+++ b/Python/Data_save/data/temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,14 +455,14 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>404</v>
+        <v>201</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16:01:44</t>
+          <t>17:41:29</t>
         </is>
       </c>
     </row>
@@ -471,14 +471,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>404</v>
+        <v>194</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16:01:46</t>
+          <t>17:41:49</t>
         </is>
       </c>
     </row>
@@ -487,14 +487,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>401</v>
+        <v>196</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16:01:47</t>
+          <t>17:42:09</t>
         </is>
       </c>
     </row>
@@ -503,14 +503,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>402</v>
+        <v>195</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16:01:48</t>
+          <t>17:42:29</t>
         </is>
       </c>
     </row>
@@ -519,14 +519,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>401</v>
+        <v>192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16:01:49</t>
+          <t>17:42:49</t>
         </is>
       </c>
     </row>
@@ -535,14 +535,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>401</v>
+        <v>187</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16:01:50</t>
+          <t>17:43:09</t>
         </is>
       </c>
     </row>
@@ -551,14 +551,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>402</v>
+        <v>283</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16:01:52</t>
+          <t>17:43:30</t>
         </is>
       </c>
     </row>
@@ -567,14 +567,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>402</v>
+        <v>277</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16:01:53</t>
+          <t>17:43:50</t>
         </is>
       </c>
     </row>
@@ -583,14 +583,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>402</v>
+        <v>272</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16:01:54</t>
+          <t>17:44:10</t>
         </is>
       </c>
     </row>
@@ -599,14 +599,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>402</v>
+        <v>264</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16:01:55</t>
+          <t>17:44:30</t>
         </is>
       </c>
     </row>
@@ -615,14 +615,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
-        <v>402</v>
+        <v>256</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16:01:56</t>
+          <t>17:44:50</t>
         </is>
       </c>
     </row>
@@ -631,14 +631,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>402</v>
+        <v>254</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16:01:57</t>
+          <t>17:45:10</t>
         </is>
       </c>
     </row>
@@ -647,14 +647,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>402</v>
+        <v>249</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>16:01:58</t>
+          <t>17:45:30</t>
         </is>
       </c>
     </row>
@@ -663,14 +663,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>402</v>
+        <v>246</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>16:01:59</t>
+          <t>17:45:50</t>
         </is>
       </c>
     </row>
@@ -679,14 +679,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>402</v>
+        <v>245</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16:02:01</t>
+          <t>17:46:10</t>
         </is>
       </c>
     </row>
@@ -695,14 +695,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
-        <v>401</v>
+        <v>246</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16:02:02</t>
+          <t>17:46:31</t>
         </is>
       </c>
     </row>
@@ -711,14 +711,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" t="n">
-        <v>401</v>
+        <v>243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>16:02:03</t>
+          <t>17:46:51</t>
         </is>
       </c>
     </row>
@@ -727,14 +727,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>401</v>
+        <v>241</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>16:02:04</t>
+          <t>17:47:11</t>
         </is>
       </c>
     </row>
@@ -743,14 +743,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>401</v>
+        <v>242</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>16:02:05</t>
+          <t>17:47:31</t>
         </is>
       </c>
     </row>
@@ -759,14 +759,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" t="n">
-        <v>401</v>
+        <v>245</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>16:02:06</t>
+          <t>17:47:51</t>
         </is>
       </c>
     </row>
@@ -775,14 +775,14 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" t="n">
-        <v>401</v>
+        <v>246</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>16:02:07</t>
+          <t>17:48:11</t>
         </is>
       </c>
     </row>
@@ -791,14 +791,14 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" t="n">
-        <v>401</v>
+        <v>249</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>16:02:08</t>
+          <t>17:48:31</t>
         </is>
       </c>
     </row>
@@ -807,14 +807,14 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" t="n">
-        <v>394</v>
+        <v>249</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>16:02:10</t>
+          <t>17:48:51</t>
         </is>
       </c>
     </row>
@@ -823,14 +823,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>402</v>
+        <v>248</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>16:02:11</t>
+          <t>17:49:11</t>
         </is>
       </c>
     </row>
@@ -839,14 +839,14 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" t="n">
-        <v>403</v>
+        <v>246</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16:02:12</t>
+          <t>17:49:31</t>
         </is>
       </c>
     </row>
@@ -855,14 +855,14 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" t="n">
-        <v>401</v>
+        <v>243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>16:02:13</t>
+          <t>17:49:52</t>
         </is>
       </c>
     </row>
@@ -871,14 +871,14 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" t="n">
-        <v>401</v>
+        <v>240</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>16:02:14</t>
+          <t>17:50:12</t>
         </is>
       </c>
     </row>
@@ -887,14 +887,14 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" t="n">
-        <v>403</v>
+        <v>240</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>16:02:16</t>
+          <t>17:50:32</t>
         </is>
       </c>
     </row>
@@ -903,14 +903,14 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" t="n">
-        <v>401</v>
+        <v>242</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>16:02:17</t>
+          <t>17:50:52</t>
         </is>
       </c>
     </row>
@@ -919,14 +919,14 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31" t="n">
-        <v>401</v>
+        <v>243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>16:02:18</t>
+          <t>17:51:12</t>
         </is>
       </c>
     </row>
@@ -935,14 +935,14 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" t="n">
-        <v>402</v>
+        <v>244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>16:02:19</t>
+          <t>17:51:32</t>
         </is>
       </c>
     </row>
@@ -951,14 +951,14 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33" t="n">
-        <v>402</v>
+        <v>245</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>16:02:20</t>
+          <t>17:51:52</t>
         </is>
       </c>
     </row>
@@ -967,14 +967,14 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" t="n">
-        <v>402</v>
+        <v>246</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>16:02:21</t>
+          <t>17:52:12</t>
         </is>
       </c>
     </row>
@@ -983,14 +983,14 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" t="n">
-        <v>402</v>
+        <v>245</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>16:02:22</t>
+          <t>17:52:33</t>
         </is>
       </c>
     </row>
@@ -999,14 +999,14 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36" t="n">
-        <v>400</v>
+        <v>242</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>16:02:23</t>
+          <t>17:52:53</t>
         </is>
       </c>
     </row>
@@ -1015,14 +1015,14 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37" t="n">
-        <v>400</v>
+        <v>241</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>16:02:25</t>
+          <t>17:53:13</t>
         </is>
       </c>
     </row>
@@ -1031,14 +1031,14 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C38" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>16:02:26</t>
+          <t>17:53:33</t>
         </is>
       </c>
     </row>
@@ -1047,14 +1047,14 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C39" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>16:02:27</t>
+          <t>17:53:53</t>
         </is>
       </c>
     </row>
@@ -1063,14 +1063,14 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C40" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>16:02:28</t>
+          <t>17:54:13</t>
         </is>
       </c>
     </row>
@@ -1079,14 +1079,14 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C41" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>16:02:29</t>
+          <t>17:54:33</t>
         </is>
       </c>
     </row>
@@ -1095,14 +1095,14 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C42" t="n">
-        <v>399</v>
+        <v>243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>16:02:30</t>
+          <t>17:54:53</t>
         </is>
       </c>
     </row>
@@ -1111,14 +1111,14 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C43" t="n">
-        <v>399</v>
+        <v>244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>16:02:31</t>
+          <t>17:55:13</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1127,14 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C44" t="n">
-        <v>396</v>
+        <v>242</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>16:02:33</t>
+          <t>17:55:34</t>
         </is>
       </c>
     </row>
@@ -1143,14 +1143,14 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C45" t="n">
-        <v>396</v>
+        <v>237</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>16:02:34</t>
+          <t>17:55:54</t>
         </is>
       </c>
     </row>
@@ -1159,14 +1159,14 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C46" t="n">
-        <v>396</v>
+        <v>237</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>16:02:35</t>
+          <t>17:56:14</t>
         </is>
       </c>
     </row>
@@ -1175,14 +1175,14 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C47" t="n">
-        <v>395</v>
+        <v>241</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>16:02:36</t>
+          <t>17:56:34</t>
         </is>
       </c>
     </row>
@@ -1191,14 +1191,14 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C48" t="n">
-        <v>395</v>
+        <v>243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>16:02:37</t>
+          <t>17:56:54</t>
         </is>
       </c>
     </row>
@@ -1207,14 +1207,14 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C49" t="n">
-        <v>394</v>
+        <v>248</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>16:02:38</t>
+          <t>17:57:14</t>
         </is>
       </c>
     </row>
@@ -1223,14 +1223,14 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C50" t="n">
-        <v>391</v>
+        <v>253</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>16:02:39</t>
+          <t>17:57:34</t>
         </is>
       </c>
     </row>
@@ -1239,14 +1239,14 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C51" t="n">
-        <v>388</v>
+        <v>256</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>16:02:41</t>
+          <t>17:57:54</t>
         </is>
       </c>
     </row>
@@ -1255,14 +1255,14 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C52" t="n">
-        <v>388</v>
+        <v>257</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>16:02:42</t>
+          <t>17:58:15</t>
         </is>
       </c>
     </row>
@@ -1271,14 +1271,14 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C53" t="n">
-        <v>384</v>
+        <v>258</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>16:02:43</t>
+          <t>17:58:35</t>
         </is>
       </c>
     </row>
@@ -1287,14 +1287,14 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C54" t="n">
-        <v>382</v>
+        <v>256</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16:02:44</t>
+          <t>17:58:55</t>
         </is>
       </c>
     </row>
@@ -1303,14 +1303,14 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C55" t="n">
-        <v>382</v>
+        <v>252</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>16:02:45</t>
+          <t>17:59:15</t>
         </is>
       </c>
     </row>
@@ -1319,14 +1319,14 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C56" t="n">
-        <v>382</v>
+        <v>246</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>16:02:46</t>
+          <t>17:59:35</t>
         </is>
       </c>
     </row>
@@ -1335,14 +1335,14 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C57" t="n">
-        <v>382</v>
+        <v>245</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>16:02:47</t>
+          <t>17:59:55</t>
         </is>
       </c>
     </row>
@@ -1351,14 +1351,14 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C58" t="n">
-        <v>388</v>
+        <v>250</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>16:02:48</t>
+          <t>18:00:15</t>
         </is>
       </c>
     </row>
@@ -1367,14 +1367,14 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C59" t="n">
-        <v>388</v>
+        <v>250</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>16:02:50</t>
+          <t>18:00:35</t>
         </is>
       </c>
     </row>
@@ -1383,14 +1383,5406 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>18</v>
+      </c>
+      <c r="C60" t="n">
+        <v>244</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>18:00:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>18</v>
+      </c>
+      <c r="C61" t="n">
+        <v>236</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>18:01:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>18</v>
+      </c>
+      <c r="C62" t="n">
+        <v>230</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>18:01:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>18</v>
+      </c>
+      <c r="C63" t="n">
+        <v>225</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>18:01:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>18</v>
+      </c>
+      <c r="C64" t="n">
+        <v>218</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>18:02:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>18</v>
+      </c>
+      <c r="C65" t="n">
+        <v>212</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>18:02:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>18</v>
+      </c>
+      <c r="C66" t="n">
+        <v>211</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>18:02:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>18</v>
+      </c>
+      <c r="C67" t="n">
+        <v>216</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>18:03:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>18</v>
+      </c>
+      <c r="C68" t="n">
+        <v>217</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>18:03:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>18</v>
+      </c>
+      <c r="C69" t="n">
+        <v>213</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>18:03:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>18</v>
+      </c>
+      <c r="C70" t="n">
+        <v>211</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>18:04:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>18</v>
+      </c>
+      <c r="C71" t="n">
+        <v>211</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>18:04:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>18</v>
+      </c>
+      <c r="C72" t="n">
+        <v>219</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>18:04:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>18</v>
+      </c>
+      <c r="C73" t="n">
+        <v>222</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>18:05:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>221</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>18:05:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>18</v>
+      </c>
+      <c r="C75" t="n">
+        <v>220</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>18:05:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>18</v>
+      </c>
+      <c r="C76" t="n">
+        <v>218</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>18:06:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>18</v>
+      </c>
+      <c r="C77" t="n">
+        <v>216</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>18:06:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C78" t="n">
+        <v>220</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>18:06:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>18</v>
+      </c>
+      <c r="C79" t="n">
+        <v>225</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>18:07:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>18</v>
+      </c>
+      <c r="C80" t="n">
+        <v>227</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>18:07:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>18</v>
+      </c>
+      <c r="C81" t="n">
+        <v>229</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>18:07:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C82" t="n">
+        <v>224</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>18:08:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>18</v>
+      </c>
+      <c r="C83" t="n">
+        <v>215</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>18:08:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>18</v>
+      </c>
+      <c r="C84" t="n">
+        <v>215</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>18:08:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>219</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>18:09:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>18</v>
+      </c>
+      <c r="C86" t="n">
+        <v>220</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>18:09:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>221</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>18:09:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>217</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>18:10:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>18</v>
+      </c>
+      <c r="C89" t="n">
+        <v>210</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>18:10:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>206</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>18:10:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>204</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>18:11:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>18</v>
+      </c>
+      <c r="C92" t="n">
+        <v>209</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>18:11:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>213</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>18:11:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>18</v>
+      </c>
+      <c r="C94" t="n">
+        <v>214</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>18:12:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>18</v>
+      </c>
+      <c r="C95" t="n">
+        <v>214</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>18:12:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C96" t="n">
+        <v>214</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>18:13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C97" t="n">
+        <v>219</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>18:13:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>18</v>
+      </c>
+      <c r="C98" t="n">
+        <v>222</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>18:13:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>18</v>
+      </c>
+      <c r="C99" t="n">
+        <v>227</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>18:14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>18</v>
+      </c>
+      <c r="C100" t="n">
+        <v>229</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>18:14:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>18</v>
+      </c>
+      <c r="C101" t="n">
+        <v>228</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>18:14:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>18</v>
+      </c>
+      <c r="C102" t="n">
+        <v>227</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>18:15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>18</v>
+      </c>
+      <c r="C103" t="n">
+        <v>224</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>18:15:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>18</v>
+      </c>
+      <c r="C104" t="n">
+        <v>223</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>18:15:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>18</v>
+      </c>
+      <c r="C105" t="n">
+        <v>224</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>18:16:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>18</v>
+      </c>
+      <c r="C106" t="n">
+        <v>227</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>18:16:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>18</v>
+      </c>
+      <c r="C107" t="n">
+        <v>224</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>18:16:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>18</v>
+      </c>
+      <c r="C108" t="n">
+        <v>217</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>18:17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C109" t="n">
+        <v>214</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>18:17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>213</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>18:17:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>211</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>18:18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>214</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>18:18:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C113" t="n">
+        <v>216</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>18:18:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>18</v>
+      </c>
+      <c r="C114" t="n">
+        <v>215</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>18:19:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>18</v>
+      </c>
+      <c r="C115" t="n">
+        <v>215</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>18:19:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>18</v>
+      </c>
+      <c r="C116" t="n">
+        <v>215</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>18:19:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>213</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>18:20:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>18</v>
+      </c>
+      <c r="C118" t="n">
+        <v>214</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>18:20:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>214</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>18:20:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>18</v>
+      </c>
+      <c r="C120" t="n">
+        <v>213</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>18:21:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>214</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>18:21:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>215</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>18:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C123" t="n">
+        <v>216</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>18:22:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>219</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>18:22:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>221</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>18:22:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>222</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>18:23:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>223</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>18:23:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>224</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>18:23:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>223</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>18:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>222</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>18:24:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>222</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>18:24:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>222</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>18:25:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>220</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>18:25:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>221</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>18:25:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>222</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>18:26:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C136" t="n">
+        <v>223</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>18:26:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C137" t="n">
+        <v>223</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>18:26:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C138" t="n">
+        <v>223</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>18:27:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C139" t="n">
+        <v>223</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>18:27:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>223</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>18:27:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>225</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>18:28:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>227</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>18:28:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>228</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>18:28:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>230</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>18:29:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>231</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>18:29:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C146" t="n">
+        <v>231</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>18:29:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>230</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>18:30:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>230</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>18:30:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>226</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>18:30:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>223</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>18:31:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>223</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>18:31:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C152" t="n">
+        <v>221</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>18:31:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>222</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>18:32:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C154" t="n">
+        <v>225</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>18:32:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C155" t="n">
+        <v>228</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>18:32:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C156" t="n">
+        <v>227</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>18:33:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C157" t="n">
+        <v>228</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>18:33:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C158" t="n">
+        <v>232</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>18:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>234</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>18:34:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C160" t="n">
+        <v>238</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>18:34:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C161" t="n">
+        <v>238</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>18:34:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>233</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>18:35:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C163" t="n">
+        <v>228</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>18:35:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C164" t="n">
+        <v>224</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>18:35:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C165" t="n">
+        <v>221</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>18:36:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C166" t="n">
+        <v>220</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>18:36:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C167" t="n">
+        <v>222</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>18:36:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>18</v>
+      </c>
+      <c r="C168" t="n">
+        <v>220</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>18:37:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>18</v>
+      </c>
+      <c r="C169" t="n">
+        <v>219</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>18:37:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>18</v>
+      </c>
+      <c r="C170" t="n">
+        <v>217</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>18:37:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>18</v>
+      </c>
+      <c r="C171" t="n">
+        <v>217</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>18:38:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>18</v>
+      </c>
+      <c r="C172" t="n">
+        <v>220</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>18:38:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>18</v>
+      </c>
+      <c r="C173" t="n">
+        <v>226</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>18:38:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>18</v>
+      </c>
+      <c r="C174" t="n">
+        <v>231</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>18:39:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>18</v>
+      </c>
+      <c r="C175" t="n">
+        <v>233</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>18:39:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>18</v>
+      </c>
+      <c r="C176" t="n">
+        <v>230</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>18:39:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>18</v>
+      </c>
+      <c r="C177" t="n">
+        <v>223</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>18:40:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>18</v>
+      </c>
+      <c r="C178" t="n">
+        <v>216</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>18:40:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>18</v>
+      </c>
+      <c r="C179" t="n">
+        <v>210</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>18:40:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>18</v>
+      </c>
+      <c r="C180" t="n">
+        <v>206</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>18:41:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>18</v>
+      </c>
+      <c r="C181" t="n">
+        <v>205</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>18:41:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>18</v>
+      </c>
+      <c r="C182" t="n">
+        <v>202</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>18:41:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>18</v>
+      </c>
+      <c r="C183" t="n">
+        <v>201</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>18:42:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>18</v>
+      </c>
+      <c r="C184" t="n">
+        <v>200</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>18:42:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>18</v>
+      </c>
+      <c r="C185" t="n">
+        <v>199</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>18:42:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>18</v>
+      </c>
+      <c r="C186" t="n">
+        <v>199</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>18:43:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>18</v>
+      </c>
+      <c r="C187" t="n">
+        <v>199</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>18:43:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>18</v>
+      </c>
+      <c r="C188" t="n">
+        <v>197</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>18:43:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>18</v>
+      </c>
+      <c r="C189" t="n">
+        <v>197</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>18:44:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>18</v>
+      </c>
+      <c r="C190" t="n">
+        <v>196</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>18:44:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>18</v>
+      </c>
+      <c r="C191" t="n">
+        <v>197</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>18:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>18</v>
+      </c>
+      <c r="C192" t="n">
+        <v>199</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>18:45:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>18</v>
+      </c>
+      <c r="C193" t="n">
+        <v>202</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>18:45:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>18</v>
+      </c>
+      <c r="C194" t="n">
+        <v>204</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>18:45:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>18</v>
+      </c>
+      <c r="C195" t="n">
+        <v>209</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>18:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>18</v>
+      </c>
+      <c r="C196" t="n">
+        <v>214</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>18:46:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>18</v>
+      </c>
+      <c r="C197" t="n">
+        <v>221</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>18:46:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>18</v>
+      </c>
+      <c r="C198" t="n">
+        <v>224</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>18:47:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>18</v>
+      </c>
+      <c r="C199" t="n">
+        <v>225</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>18:47:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>18</v>
+      </c>
+      <c r="C200" t="n">
+        <v>224</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>18:47:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>18</v>
+      </c>
+      <c r="C201" t="n">
+        <v>224</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>18:48:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>18</v>
+      </c>
+      <c r="C202" t="n">
+        <v>222</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>18:48:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>18</v>
+      </c>
+      <c r="C203" t="n">
+        <v>219</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>18:48:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>18</v>
+      </c>
+      <c r="C204" t="n">
+        <v>216</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>18:49:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>18</v>
+      </c>
+      <c r="C205" t="n">
+        <v>211</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>18:49:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>18</v>
+      </c>
+      <c r="C206" t="n">
+        <v>207</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>18:49:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>18</v>
+      </c>
+      <c r="C207" t="n">
+        <v>205</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>18:50:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>18</v>
+      </c>
+      <c r="C208" t="n">
+        <v>202</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>18:50:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>18</v>
+      </c>
+      <c r="C209" t="n">
+        <v>200</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>18:50:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>18</v>
+      </c>
+      <c r="C210" t="n">
+        <v>198</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>18:51:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>18</v>
+      </c>
+      <c r="C211" t="n">
+        <v>197</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>18:51:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>18</v>
+      </c>
+      <c r="C212" t="n">
+        <v>197</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>18:51:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>18</v>
+      </c>
+      <c r="C213" t="n">
+        <v>196</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>18:52:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>18</v>
+      </c>
+      <c r="C214" t="n">
+        <v>196</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>18:52:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>18</v>
+      </c>
+      <c r="C215" t="n">
+        <v>196</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>18:52:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>18</v>
+      </c>
+      <c r="C216" t="n">
+        <v>196</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>18:53:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>18</v>
+      </c>
+      <c r="C217" t="n">
+        <v>196</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>18:53:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>18</v>
+      </c>
+      <c r="C218" t="n">
+        <v>195</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>18:53:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>18</v>
+      </c>
+      <c r="C219" t="n">
+        <v>194</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>18:54:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>18</v>
+      </c>
+      <c r="C220" t="n">
+        <v>194</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>18:54:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>18</v>
+      </c>
+      <c r="C221" t="n">
+        <v>193</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>18:54:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>18</v>
+      </c>
+      <c r="C222" t="n">
+        <v>192</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>18:55:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>18</v>
+      </c>
+      <c r="C223" t="n">
+        <v>191</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>18:55:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>18</v>
+      </c>
+      <c r="C224" t="n">
+        <v>191</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>18:55:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>18</v>
+      </c>
+      <c r="C225" t="n">
+        <v>191</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>18:56:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C226" t="n">
+        <v>190</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>18:56:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>18</v>
+      </c>
+      <c r="C227" t="n">
+        <v>190</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>18:56:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>18</v>
+      </c>
+      <c r="C228" t="n">
+        <v>191</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>18:57:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>18</v>
+      </c>
+      <c r="C229" t="n">
+        <v>191</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>18:57:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>18</v>
+      </c>
+      <c r="C230" t="n">
+        <v>191</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>18:57:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>18</v>
+      </c>
+      <c r="C231" t="n">
+        <v>222</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>18:58:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>18</v>
+      </c>
+      <c r="C232" t="n">
+        <v>68</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>18:58:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>18</v>
+      </c>
+      <c r="C233" t="n">
+        <v>68</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>18:58:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>18</v>
+      </c>
+      <c r="C234" t="n">
+        <v>69</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>18:59:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C235" t="n">
+        <v>72</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>18:59:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C236" t="n">
+        <v>72</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>18:59:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C237" t="n">
+        <v>73</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>19:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C238" t="n">
+        <v>72</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>19:00:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C239" t="n">
+        <v>71</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>19:00:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C240" t="n">
+        <v>70</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>19:01:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C241" t="n">
+        <v>69</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>19:01:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C242" t="n">
+        <v>67</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>19:01:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C243" t="n">
+        <v>65</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>19:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C244" t="n">
+        <v>63</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>19:02:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C245" t="n">
+        <v>62</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>19:02:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C246" t="n">
+        <v>62</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>19:03:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C247" t="n">
+        <v>61</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>19:03:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C248" t="n">
+        <v>59</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>19:03:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C249" t="n">
+        <v>57</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>19:04:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C250" t="n">
+        <v>54</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>19:04:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C251" t="n">
+        <v>53</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>19:05:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C252" t="n">
+        <v>54</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>19:05:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C253" t="n">
+        <v>55</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>19:05:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C254" t="n">
+        <v>55</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>19:06:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C255" t="n">
+        <v>53</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>19:06:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C256" t="n">
+        <v>51</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>19:06:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C257" t="n">
+        <v>50</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>19:07:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C258" t="n">
+        <v>49</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>19:07:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C259" t="n">
+        <v>48</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>19:07:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C260" t="n">
+        <v>48</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>19:08:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C261" t="n">
+        <v>49</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>19:08:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C262" t="n">
+        <v>51</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>19:08:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C263" t="n">
+        <v>54</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>19:09:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C264" t="n">
+        <v>55</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>19:09:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C265" t="n">
+        <v>53</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>19:09:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C266" t="n">
+        <v>51</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>19:10:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C267" t="n">
+        <v>49</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>19:10:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C268" t="n">
+        <v>50</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>19:10:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C269" t="n">
+        <v>49</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>19:11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C270" t="n">
+        <v>49</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>19:11:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C271" t="n">
+        <v>48</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>19:12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C272" t="n">
+        <v>47</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>19:12:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C273" t="n">
+        <v>47</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>19:12:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C274" t="n">
+        <v>44</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>19:13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C275" t="n">
+        <v>40</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>19:13:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C276" t="n">
+        <v>37</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>19:13:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C277" t="n">
+        <v>33</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>19:14:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>17</v>
+      </c>
+      <c r="C278" t="n">
+        <v>32</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>19:14:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C279" t="n">
+        <v>31</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>19:14:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C280" t="n">
+        <v>30</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>19:15:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>17</v>
+      </c>
+      <c r="C281" t="n">
+        <v>28</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>19:15:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>17</v>
+      </c>
+      <c r="C282" t="n">
+        <v>28</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>19:15:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>17</v>
+      </c>
+      <c r="C283" t="n">
+        <v>28</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>19:16:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>17</v>
+      </c>
+      <c r="C284" t="n">
+        <v>28</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>19:16:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>17</v>
+      </c>
+      <c r="C285" t="n">
+        <v>27</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>19:16:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>17</v>
+      </c>
+      <c r="C286" t="n">
+        <v>28</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>19:17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>17</v>
+      </c>
+      <c r="C287" t="n">
+        <v>27</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>19:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>17</v>
+      </c>
+      <c r="C288" t="n">
+        <v>26</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>19:17:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>17</v>
+      </c>
+      <c r="C289" t="n">
+        <v>27</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>19:18:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>17</v>
+      </c>
+      <c r="C290" t="n">
+        <v>25</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>19:18:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>17</v>
+      </c>
+      <c r="C291" t="n">
+        <v>25</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>19:18:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>17</v>
+      </c>
+      <c r="C292" t="n">
+        <v>24</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>19:19:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>17</v>
+      </c>
+      <c r="C293" t="n">
+        <v>24</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>19:19:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>17</v>
+      </c>
+      <c r="C294" t="n">
+        <v>25</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>19:20:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>17</v>
+      </c>
+      <c r="C295" t="n">
+        <v>24</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>19:20:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>17</v>
+      </c>
+      <c r="C296" t="n">
+        <v>24</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>19:20:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>17</v>
+      </c>
+      <c r="C297" t="n">
+        <v>24</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>19:21:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>17</v>
+      </c>
+      <c r="C298" t="n">
+        <v>24</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>19:21:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>17</v>
+      </c>
+      <c r="C299" t="n">
+        <v>21</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>19:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>17</v>
+      </c>
+      <c r="C300" t="n">
+        <v>23</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>19:22:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>17</v>
+      </c>
+      <c r="C301" t="n">
+        <v>22</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>19:22:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>17</v>
+      </c>
+      <c r="C302" t="n">
+        <v>21</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>19:22:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>17</v>
+      </c>
+      <c r="C303" t="n">
+        <v>21</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>19:23:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>17</v>
+      </c>
+      <c r="C304" t="n">
         <v>20</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>19:23:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>17</v>
+      </c>
+      <c r="C305" t="n">
+        <v>20</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>19:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>17</v>
+      </c>
+      <c r="C306" t="n">
+        <v>19</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>19:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>17</v>
+      </c>
+      <c r="C307" t="n">
+        <v>18</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>19:24:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>17</v>
+      </c>
+      <c r="C308" t="n">
+        <v>17</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>19:24:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>17</v>
+      </c>
+      <c r="C309" t="n">
+        <v>17</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>19:25:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>17</v>
+      </c>
+      <c r="C310" t="n">
+        <v>16</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>19:25:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>17</v>
+      </c>
+      <c r="C311" t="n">
+        <v>15</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>19:25:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>17</v>
+      </c>
+      <c r="C312" t="n">
+        <v>15</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>19:26:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>17</v>
+      </c>
+      <c r="C313" t="n">
+        <v>15</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>19:26:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>17</v>
+      </c>
+      <c r="C314" t="n">
+        <v>14</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>19:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>17</v>
+      </c>
+      <c r="C315" t="n">
+        <v>14</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>19:27:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>17</v>
+      </c>
+      <c r="C316" t="n">
+        <v>14</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>19:27:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>17</v>
+      </c>
+      <c r="C317" t="n">
+        <v>14</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>19:27:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>17</v>
+      </c>
+      <c r="C318" t="n">
+        <v>14</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>19:28:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>17</v>
+      </c>
+      <c r="C319" t="n">
+        <v>13</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>19:28:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>17</v>
+      </c>
+      <c r="C320" t="n">
+        <v>13</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>19:28:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>17</v>
+      </c>
+      <c r="C321" t="n">
+        <v>12</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>19:29:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>17</v>
+      </c>
+      <c r="C322" t="n">
+        <v>11</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>19:29:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>17</v>
+      </c>
+      <c r="C323" t="n">
+        <v>11</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>19:29:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>17</v>
+      </c>
+      <c r="C324" t="n">
+        <v>11</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>19:30:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>17</v>
+      </c>
+      <c r="C325" t="n">
+        <v>11</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>19:30:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>17</v>
+      </c>
+      <c r="C326" t="n">
+        <v>11</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>19:30:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>17</v>
+      </c>
+      <c r="C327" t="n">
+        <v>11</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>19:31:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>17</v>
+      </c>
+      <c r="C328" t="n">
+        <v>12</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>19:31:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>17</v>
+      </c>
+      <c r="C329" t="n">
+        <v>11</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>19:31:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C330" t="n">
+        <v>11</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>19:32:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>17</v>
+      </c>
+      <c r="C331" t="n">
+        <v>11</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>19:32:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>17</v>
+      </c>
+      <c r="C332" t="n">
+        <v>11</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>19:32:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>17</v>
+      </c>
+      <c r="C333" t="n">
+        <v>11</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>19:33:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>17</v>
+      </c>
+      <c r="C334" t="n">
+        <v>10</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>19:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C335" t="n">
+        <v>10</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>19:34:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C336" t="n">
+        <v>9</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>19:34:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C337" t="n">
+        <v>9</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>19:34:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C338" t="n">
+        <v>9</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>19:35:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C339" t="n">
+        <v>9</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>19:35:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C340" t="n">
+        <v>9</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>19:35:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C341" t="n">
+        <v>8</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>19:36:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C342" t="n">
+        <v>8</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>19:36:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C343" t="n">
+        <v>8</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>19:36:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C344" t="n">
+        <v>7</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>19:37:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C345" t="n">
+        <v>8</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>19:37:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C346" t="n">
+        <v>7</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>19:37:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C347" t="n">
+        <v>8</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>19:38:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C348" t="n">
+        <v>7</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>19:38:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C349" t="n">
+        <v>7</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>19:38:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C350" t="n">
+        <v>7</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>19:39:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C351" t="n">
+        <v>6</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>19:39:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C352" t="n">
+        <v>6</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>19:39:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C353" t="n">
+        <v>6</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>19:40:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C354" t="n">
+        <v>6</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>19:40:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C355" t="n">
+        <v>6</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>19:40:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C356" t="n">
+        <v>6</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>19:41:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C357" t="n">
+        <v>6</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>19:41:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C358" t="n">
+        <v>6</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>19:41:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C359" t="n">
+        <v>5</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>19:42:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C360" t="n">
+        <v>6</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>19:42:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C361" t="n">
+        <v>6</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>19:42:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C362" t="n">
+        <v>5</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>19:43:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C363" t="n">
+        <v>6</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>19:43:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C364" t="n">
+        <v>5</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>19:43:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C365" t="n">
+        <v>5</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>19:44:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C366" t="n">
+        <v>5</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>19:44:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C367" t="n">
+        <v>5</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>19:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C368" t="n">
+        <v>5</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>19:45:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C369" t="n">
+        <v>5</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>19:45:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C370" t="n">
+        <v>5</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>19:45:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C371" t="n">
+        <v>5</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>19:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C372" t="n">
+        <v>5</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>19:46:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C373" t="n">
+        <v>5</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>19:46:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C374" t="n">
+        <v>4</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>19:47:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C375" t="n">
+        <v>5</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>19:47:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C376" t="n">
+        <v>4</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>19:47:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C377" t="n">
+        <v>4</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>19:48:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C378" t="n">
+        <v>4</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>19:48:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C379" t="n">
+        <v>4</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>19:48:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C380" t="n">
+        <v>4</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>19:49:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C381" t="n">
+        <v>4</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>19:49:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C382" t="n">
+        <v>4</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>19:49:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C383" t="n">
+        <v>4</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>19:50:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C384" t="n">
+        <v>4</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>19:50:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C385" t="n">
+        <v>3</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>19:50:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C386" t="n">
+        <v>3</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>19:51:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C387" t="n">
+        <v>3</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>19:51:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C388" t="n">
+        <v>4</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>19:51:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C389" t="n">
+        <v>3</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>19:52:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C390" t="n">
+        <v>3</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>19:52:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>16:02:51</t>
+      <c r="B391" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C391" t="n">
+        <v>4</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>19:52:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C392" t="n">
+        <v>3</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>19:53:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C393" t="n">
+        <v>3</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>19:53:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C394" t="n">
+        <v>3</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>19:53:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C395" t="n">
+        <v>3</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>19:54:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C396" t="n">
+        <v>4</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>19:54:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C397" t="n">
+        <v>4</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>19:54:54</t>
         </is>
       </c>
     </row>

--- a/Python/Data_save/data/temp.xlsx
+++ b/Python/Data_save/data/temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,19 +465,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>505</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>505</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>504</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>504</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F5" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>504</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F6" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -565,19 +565,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>503</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F7" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -585,19 +585,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>504</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -605,19 +605,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>504</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F9" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -625,19 +625,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>504</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F10" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -645,19 +645,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>503</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F11" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -665,19 +665,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>503</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F12" t="n">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -685,19 +685,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>503</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F13" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +705,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>503</v>
       </c>
       <c r="D14" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>32</v>
+      </c>
+      <c r="F14" t="n">
         <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>23</v>
-      </c>
-      <c r="F14" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -725,19 +725,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>502</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F15" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -745,19 +745,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>502</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F16" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -765,19 +765,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>502</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E17" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -785,19 +785,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
+        <v>501</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14</v>
+      </c>
+      <c r="E18" t="n">
+        <v>32</v>
+      </c>
+      <c r="F18" t="n">
         <v>5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>23</v>
-      </c>
-      <c r="F18" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -805,19 +805,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>502</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F19" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -825,19 +825,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>501</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F20" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -845,19 +845,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>501</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F21" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -865,19 +865,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>501</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E22" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F22" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -885,19 +885,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F23" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -905,19 +905,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>501</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E24" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F24" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -925,19 +925,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E25" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F25" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -945,19 +945,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E26" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F26" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -965,19 +965,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E27" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F27" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -985,19 +985,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E28" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F28" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -1005,19 +1005,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E29" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F29" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1025,19 +1025,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E30" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F30" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -1045,19 +1045,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E31" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F31" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -1065,19 +1065,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>502</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E32" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F32" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
@@ -1085,19 +1085,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>501</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E33" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F33" t="n">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -1105,19 +1105,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>501</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E34" t="n">
+        <v>32</v>
+      </c>
+      <c r="F34" t="n">
         <v>23</v>
-      </c>
-      <c r="F34" t="n">
-        <v>58</v>
       </c>
     </row>
     <row r="35">
@@ -1125,19 +1125,339 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>501</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E35" t="n">
+        <v>32</v>
+      </c>
+      <c r="F35" t="n">
         <v>24</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20</v>
+      </c>
+      <c r="C36" t="n">
+        <v>501</v>
+      </c>
+      <c r="D36" t="n">
+        <v>14</v>
+      </c>
+      <c r="E36" t="n">
+        <v>32</v>
+      </c>
+      <c r="F36" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20</v>
+      </c>
+      <c r="C37" t="n">
+        <v>501</v>
+      </c>
+      <c r="D37" t="n">
+        <v>14</v>
+      </c>
+      <c r="E37" t="n">
+        <v>32</v>
+      </c>
+      <c r="F37" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>20</v>
+      </c>
+      <c r="C38" t="n">
+        <v>501</v>
+      </c>
+      <c r="D38" t="n">
+        <v>14</v>
+      </c>
+      <c r="E38" t="n">
+        <v>32</v>
+      </c>
+      <c r="F38" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20</v>
+      </c>
+      <c r="C39" t="n">
+        <v>501</v>
+      </c>
+      <c r="D39" t="n">
+        <v>14</v>
+      </c>
+      <c r="E39" t="n">
+        <v>32</v>
+      </c>
+      <c r="F39" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20</v>
+      </c>
+      <c r="C40" t="n">
+        <v>500</v>
+      </c>
+      <c r="D40" t="n">
+        <v>14</v>
+      </c>
+      <c r="E40" t="n">
+        <v>32</v>
+      </c>
+      <c r="F40" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20</v>
+      </c>
+      <c r="C41" t="n">
+        <v>500</v>
+      </c>
+      <c r="D41" t="n">
+        <v>14</v>
+      </c>
+      <c r="E41" t="n">
+        <v>32</v>
+      </c>
+      <c r="F41" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20</v>
+      </c>
+      <c r="C42" t="n">
+        <v>500</v>
+      </c>
+      <c r="D42" t="n">
+        <v>14</v>
+      </c>
+      <c r="E42" t="n">
+        <v>32</v>
+      </c>
+      <c r="F42" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+      <c r="C43" t="n">
+        <v>500</v>
+      </c>
+      <c r="D43" t="n">
+        <v>14</v>
+      </c>
+      <c r="E43" t="n">
+        <v>32</v>
+      </c>
+      <c r="F43" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20</v>
+      </c>
+      <c r="C44" t="n">
+        <v>499</v>
+      </c>
+      <c r="D44" t="n">
+        <v>14</v>
+      </c>
+      <c r="E44" t="n">
+        <v>32</v>
+      </c>
+      <c r="F44" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>20</v>
+      </c>
+      <c r="C45" t="n">
+        <v>502</v>
+      </c>
+      <c r="D45" t="n">
+        <v>14</v>
+      </c>
+      <c r="E45" t="n">
+        <v>32</v>
+      </c>
+      <c r="F45" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>20</v>
+      </c>
+      <c r="C46" t="n">
+        <v>501</v>
+      </c>
+      <c r="D46" t="n">
+        <v>14</v>
+      </c>
+      <c r="E46" t="n">
+        <v>32</v>
+      </c>
+      <c r="F46" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20</v>
+      </c>
+      <c r="C47" t="n">
+        <v>501</v>
+      </c>
+      <c r="D47" t="n">
+        <v>14</v>
+      </c>
+      <c r="E47" t="n">
+        <v>32</v>
+      </c>
+      <c r="F47" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>20</v>
+      </c>
+      <c r="C48" t="n">
+        <v>501</v>
+      </c>
+      <c r="D48" t="n">
+        <v>14</v>
+      </c>
+      <c r="E48" t="n">
+        <v>32</v>
+      </c>
+      <c r="F48" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>20</v>
+      </c>
+      <c r="C49" t="n">
+        <v>501</v>
+      </c>
+      <c r="D49" t="n">
+        <v>14</v>
+      </c>
+      <c r="E49" t="n">
+        <v>32</v>
+      </c>
+      <c r="F49" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20</v>
+      </c>
+      <c r="C50" t="n">
+        <v>501</v>
+      </c>
+      <c r="D50" t="n">
+        <v>14</v>
+      </c>
+      <c r="E50" t="n">
+        <v>32</v>
+      </c>
+      <c r="F50" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20</v>
+      </c>
+      <c r="C51" t="n">
+        <v>501</v>
+      </c>
+      <c r="D51" t="n">
+        <v>14</v>
+      </c>
+      <c r="E51" t="n">
+        <v>32</v>
+      </c>
+      <c r="F51" t="n">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
